--- a/biology/Médecine/Analyse_des_cheveux/Analyse_des_cheveux.xlsx
+++ b/biology/Médecine/Analyse_des_cheveux/Analyse_des_cheveux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'analyse des cheveux peut consister en une analyse microscopique ou en une analyse chimique. La première est utilisée dans les enquêtes criminelles pour la comparaison de différents échantillons, la seconde a un champ d'application plus large (examen de l'état de santé, détection de l'usage de médicaments ou de drogues, ou encore de produits toxiques présents dans l'environnement). Elle consiste en une analyse minérale des cheveux permettant de recenser les oligo-éléments ou de repérer les traces de certains produits (médicaments, drogues dont l'alcool, métaux lourds etc.). Ces élément peuvent avoir deux provenances : l'alimentation et le milieu ambiant (pollution de l'air, poussières).
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comparée à d'autres modes d'analyse comme l'analyse sanguine, l'analyse chimique des cheveux est moins invasive et moins chère. Elle permet de détecter une contamination ancienne dont le cheveu garde la trace, à la différence du sang qui est filtré et renouvelé rapidement. La teneur en minéraux de l'organisme peut également être évaluée par dosage dans le plasma sanguin, mais dans le sang le taux des minéraux peut fluctuer en fonction de l'alimentation du jour, de notre état de fatigue, des médicaments ou de l'alcool éventuellement absorbés, alors que le cheveu présente une concentration en minéraux stable, du fait de son caractère inerte et homogène[réf. nécessaire]. Il en va de même pour les urines en médecine légale[1] . En remontant le cheveu, on peut détecter une possible overdose criminelle en montrant l'absence du toxique dans les mois précédent la mort (analyse segmentaire des cheveux). Le cheveux peut alors être considéré comme une bande d'enregistrement. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comparée à d'autres modes d'analyse comme l'analyse sanguine, l'analyse chimique des cheveux est moins invasive et moins chère. Elle permet de détecter une contamination ancienne dont le cheveu garde la trace, à la différence du sang qui est filtré et renouvelé rapidement. La teneur en minéraux de l'organisme peut également être évaluée par dosage dans le plasma sanguin, mais dans le sang le taux des minéraux peut fluctuer en fonction de l'alimentation du jour, de notre état de fatigue, des médicaments ou de l'alcool éventuellement absorbés, alors que le cheveu présente une concentration en minéraux stable, du fait de son caractère inerte et homogène[réf. nécessaire]. Il en va de même pour les urines en médecine légale . En remontant le cheveu, on peut détecter une possible overdose criminelle en montrant l'absence du toxique dans les mois précédent la mort (analyse segmentaire des cheveux). Le cheveux peut alors être considéré comme une bande d'enregistrement. 
 </t>
         </is>
       </c>
